--- a/Projects/MARSRU2_SAND/Data/2018/MARS KPIs.xlsx
+++ b/Projects/MARSRU2_SAND/Data/2018/MARS KPIs.xlsx
@@ -20,30 +20,31 @@
     <sheet name="Разбивка по форматам" sheetId="10" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPI!$B$1:$X$72</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPI!$B$1:$X$72</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPI!$B$1:$X$72</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPI!$B$1:$X$72</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPI!$B$1:$X$72</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">KPI!$B$1:$X$72</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">KPI!$B$1:$X$72</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">KPI!$B$1:$X$71</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">KPI!$B$1:$X$72</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$B$1:$X$71</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$B$1:$X$71</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$B$1:$X$71</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$B$1:$X$71</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$B$1:$X$71</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$B$1:$X$71</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$B$1:$X$71</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$B$1:$X$71</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$B$1:$X$71</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$B$1:$X$71</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$B$1:$X$71</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$B$1:$X$71</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$B$1:$X$71</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$B$1:$X$71</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$B$1:$X$71</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPI!$B$1:$Y$72</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPI!$B$1:$Y$72</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPI!$B$1:$Y$72</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPI!$B$1:$Y$72</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPI!$B$1:$Y$72</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">KPI!$B$1:$Y$72</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">KPI!$B$1:$Y$72</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">KPI!$B$1:$Y$72</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">KPI!$B$1:$Y$71</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$B$1:$Y$72</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$B$1:$Y$71</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$B$1:$Y$71</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$B$1:$Y$71</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$B$1:$Y$71</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$B$1:$Y$71</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$B$1:$Y$71</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$B$1:$Y$71</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$B$1:$Y$71</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$B$1:$Y$71</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$B$1:$Y$71</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$B$1:$Y$71</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$B$1:$Y$71</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$B$1:$Y$71</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$B$1:$Y$71</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$B$1:$Y$71</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -55,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="335">
   <si>
     <t xml:space="preserve">Comment</t>
   </si>
@@ -103,6 +104,9 @@
   </si>
   <si>
     <t xml:space="preserve">Location type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manufacturer</t>
   </si>
   <si>
     <t xml:space="preserve">Brand Category value</t>
@@ -160,6 +164,9 @@
   </si>
   <si>
     <t xml:space="preserve">Primary Shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mars</t>
   </si>
   <si>
     <t xml:space="preserve">Catsan</t>
@@ -395,9 +402,6 @@
   </si>
   <si>
     <t xml:space="preserve">MAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mars</t>
   </si>
   <si>
     <t xml:space="preserve">Среднее кол-во полок c кормами и лакомствами для собак на стеллаже</t>
@@ -754,7 +758,7 @@
     <t xml:space="preserve">number of scenes</t>
   </si>
   <si>
-    <t xml:space="preserve">SCENES</t>
+    <t xml:space="preserve">SCENE_TYPE</t>
   </si>
   <si>
     <t xml:space="preserve">DMP Nestle</t>
@@ -1652,36 +1656,36 @@
   </sheetPr>
   <dimension ref="1:72"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="L56" activeCellId="0" sqref="L56"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="Q67" activeCellId="0" sqref="Q67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.2"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="32.8866396761134"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="33.1012145748988"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="2" width="6.42914979757085"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="2" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="17.6761133603239"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="3" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="3" width="38.0283400809717"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="3" width="97.587044534413"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="3" width="100.906882591093"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="37.4898785425101"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="3" width="38.3481781376518"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="3" width="98.4412955465587"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="3" width="101.761133603239"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="37.7044534412955"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="3" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="2" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="16.2834008097166"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="3" width="8.89068825910931"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="4" width="36.6356275303644"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="3" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="19" min="17" style="3" width="16.1740890688259"/>
-    <col collapsed="false" hidden="false" max="21" min="20" style="3" width="20.3522267206478"/>
-    <col collapsed="false" hidden="false" max="23" min="22" style="3" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="3" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="4" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="1025" min="26" style="1" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="4" width="36.9554655870445"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="3" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="20" min="17" style="3" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="22" min="21" style="3" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="24" min="23" style="3" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="3" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="4" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="1" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" s="12" customFormat="true" ht="23.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1754,13 +1758,15 @@
       <c r="W1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="10" t="s">
+      <c r="X1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Y1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="AMF1" s="1"/>
+      <c r="Z1" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="AMG1" s="1"/>
       <c r="AMH1" s="1"/>
       <c r="AMI1" s="1"/>
@@ -1778,40 +1784,42 @@
         <v>1631</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="N2" s="14"/>
       <c r="O2" s="14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P2" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q2" s="14"/>
+        <v>35</v>
+      </c>
+      <c r="Q2" s="14" t="s">
+        <v>36</v>
+      </c>
       <c r="R2" s="14"/>
       <c r="S2" s="14"/>
       <c r="T2" s="14"/>
@@ -1819,10 +1827,10 @@
       <c r="V2" s="14"/>
       <c r="W2" s="14"/>
       <c r="X2" s="14"/>
-      <c r="Y2" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z2" s="0"/>
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="14" t="s">
+        <v>37</v>
+      </c>
       <c r="AA2" s="0"/>
       <c r="AB2" s="0"/>
       <c r="AC2" s="0"/>
@@ -2834,38 +2842,38 @@
         <v>1632</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L3" s="13" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M3" s="2" t="n">
         <v>0</v>
       </c>
       <c r="N3" s="14"/>
       <c r="O3" s="14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P3" s="14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q3" s="14"/>
       <c r="R3" s="14"/>
@@ -2875,10 +2883,10 @@
       <c r="V3" s="14"/>
       <c r="W3" s="14"/>
       <c r="X3" s="14"/>
-      <c r="Y3" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z3" s="0"/>
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="14" t="s">
+        <v>37</v>
+      </c>
       <c r="AA3" s="0"/>
       <c r="AB3" s="0"/>
       <c r="AC3" s="0"/>
@@ -3890,41 +3898,41 @@
         <v>1633</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M4" s="2" t="n">
         <v>1</v>
       </c>
       <c r="N4" s="14"/>
       <c r="O4" s="14" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="P4" s="14"/>
-      <c r="Q4" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="R4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14" t="s">
+        <v>34</v>
+      </c>
       <c r="S4" s="14"/>
       <c r="T4" s="14"/>
       <c r="U4" s="14"/>
@@ -3932,7 +3940,7 @@
       <c r="W4" s="14"/>
       <c r="X4" s="14"/>
       <c r="Y4" s="14"/>
-      <c r="Z4" s="0"/>
+      <c r="Z4" s="14"/>
       <c r="AA4" s="0"/>
       <c r="AB4" s="0"/>
       <c r="AC4" s="0"/>
@@ -4944,36 +4952,36 @@
         <v>1634</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L5" s="13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M5" s="0"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P5" s="14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q5" s="14"/>
       <c r="R5" s="14"/>
@@ -4984,7 +4992,7 @@
       <c r="W5" s="14"/>
       <c r="X5" s="14"/>
       <c r="Y5" s="14"/>
-      <c r="Z5" s="0"/>
+      <c r="Z5" s="14"/>
       <c r="AA5" s="0"/>
       <c r="AB5" s="0"/>
       <c r="AC5" s="0"/>
@@ -5996,40 +6004,42 @@
         <v>1635</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L6" s="13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="N6" s="14"/>
       <c r="O6" s="14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P6" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q6" s="14"/>
+        <v>35</v>
+      </c>
+      <c r="Q6" s="14" t="s">
+        <v>36</v>
+      </c>
       <c r="R6" s="14"/>
       <c r="S6" s="14"/>
       <c r="T6" s="14"/>
@@ -6038,7 +6048,7 @@
       <c r="W6" s="14"/>
       <c r="X6" s="14"/>
       <c r="Y6" s="14"/>
-      <c r="Z6" s="0"/>
+      <c r="Z6" s="14"/>
       <c r="AA6" s="0"/>
       <c r="AB6" s="0"/>
       <c r="AC6" s="0"/>
@@ -7050,38 +7060,38 @@
         <v>1636</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L7" s="13" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M7" s="2" t="n">
         <v>0</v>
       </c>
       <c r="N7" s="14"/>
       <c r="O7" s="14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P7" s="14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q7" s="14"/>
       <c r="R7" s="14"/>
@@ -7092,7 +7102,7 @@
       <c r="W7" s="14"/>
       <c r="X7" s="14"/>
       <c r="Y7" s="14"/>
-      <c r="Z7" s="0"/>
+      <c r="Z7" s="14"/>
       <c r="AA7" s="0"/>
       <c r="AB7" s="0"/>
       <c r="AC7" s="0"/>
@@ -8104,41 +8114,41 @@
         <v>1637</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K8" s="13" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L8" s="13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M8" s="2" t="n">
         <v>1</v>
       </c>
       <c r="N8" s="14"/>
       <c r="O8" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P8" s="14"/>
-      <c r="Q8" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="R8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14" t="s">
+        <v>56</v>
+      </c>
       <c r="S8" s="14"/>
       <c r="T8" s="14"/>
       <c r="U8" s="14"/>
@@ -8146,7 +8156,7 @@
       <c r="W8" s="14"/>
       <c r="X8" s="14"/>
       <c r="Y8" s="14"/>
-      <c r="Z8" s="0"/>
+      <c r="Z8" s="14"/>
       <c r="AA8" s="0"/>
       <c r="AB8" s="0"/>
       <c r="AC8" s="0"/>
@@ -9158,25 +9168,25 @@
         <v>1638</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L9" s="13" t="n">
         <v>10</v>
@@ -9191,7 +9201,7 @@
         <v>4607065003999</v>
       </c>
       <c r="P9" s="14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q9" s="14"/>
       <c r="R9" s="14"/>
@@ -9202,7 +9212,7 @@
       <c r="W9" s="14"/>
       <c r="X9" s="14"/>
       <c r="Y9" s="14"/>
-      <c r="Z9" s="0"/>
+      <c r="Z9" s="14"/>
       <c r="AA9" s="0"/>
       <c r="AB9" s="0"/>
       <c r="AC9" s="0"/>
@@ -10214,25 +10224,25 @@
         <v>1643</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G10" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="J10" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="K10" s="13" t="s">
         <v>67</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="J10" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="K10" s="13" t="s">
-        <v>65</v>
       </c>
       <c r="L10" s="13" t="n">
         <v>10</v>
@@ -10247,7 +10257,7 @@
         <v>4607065004118</v>
       </c>
       <c r="P10" s="14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q10" s="14"/>
       <c r="R10" s="14"/>
@@ -10258,7 +10268,7 @@
       <c r="W10" s="14"/>
       <c r="X10" s="14"/>
       <c r="Y10" s="14"/>
-      <c r="Z10" s="0"/>
+      <c r="Z10" s="14"/>
       <c r="AA10" s="0"/>
       <c r="AB10" s="0"/>
       <c r="AC10" s="0"/>
@@ -11270,25 +11280,25 @@
         <v>1644</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J11" s="14" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L11" s="13" t="n">
         <v>10</v>
@@ -11303,7 +11313,7 @@
         <v>4607065004019</v>
       </c>
       <c r="P11" s="14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q11" s="14"/>
       <c r="R11" s="14"/>
@@ -11314,7 +11324,7 @@
       <c r="W11" s="14"/>
       <c r="X11" s="14"/>
       <c r="Y11" s="14"/>
-      <c r="Z11" s="0"/>
+      <c r="Z11" s="14"/>
       <c r="AA11" s="0"/>
       <c r="AB11" s="0"/>
       <c r="AC11" s="0"/>
@@ -12326,25 +12336,25 @@
         <v>1646</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K12" s="13" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L12" s="13" t="n">
         <v>10</v>
@@ -12359,7 +12369,7 @@
         <v>4607065004057</v>
       </c>
       <c r="P12" s="14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q12" s="14"/>
       <c r="R12" s="14"/>
@@ -12370,7 +12380,7 @@
       <c r="W12" s="14"/>
       <c r="X12" s="14"/>
       <c r="Y12" s="14"/>
-      <c r="Z12" s="0"/>
+      <c r="Z12" s="14"/>
       <c r="AA12" s="0"/>
       <c r="AB12" s="0"/>
       <c r="AC12" s="0"/>
@@ -13382,25 +13392,25 @@
         <v>1649</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J13" s="14" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K13" s="13" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L13" s="13" t="n">
         <v>10</v>
@@ -13410,7 +13420,7 @@
       </c>
       <c r="N13" s="14"/>
       <c r="O13" s="14" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="P13" s="14"/>
       <c r="Q13" s="14"/>
@@ -13422,7 +13432,7 @@
       <c r="W13" s="14"/>
       <c r="X13" s="14"/>
       <c r="Y13" s="14"/>
-      <c r="Z13" s="0"/>
+      <c r="Z13" s="14"/>
       <c r="AA13" s="0"/>
       <c r="AB13" s="0"/>
       <c r="AC13" s="0"/>
@@ -14434,25 +14444,25 @@
         <v>1650</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G14" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J14" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="H14" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="J14" s="14" t="s">
-        <v>75</v>
-      </c>
       <c r="K14" s="13" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L14" s="13" t="n">
         <v>10</v>
@@ -14462,7 +14472,7 @@
       </c>
       <c r="N14" s="14"/>
       <c r="O14" s="14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P14" s="14"/>
       <c r="Q14" s="14"/>
@@ -14474,7 +14484,7 @@
       <c r="W14" s="14"/>
       <c r="X14" s="14"/>
       <c r="Y14" s="14"/>
-      <c r="Z14" s="0"/>
+      <c r="Z14" s="14"/>
       <c r="AA14" s="0"/>
       <c r="AB14" s="0"/>
       <c r="AC14" s="0"/>
@@ -15486,25 +15496,25 @@
         <v>1651</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L15" s="13" t="n">
         <v>10</v>
@@ -15514,7 +15524,7 @@
       </c>
       <c r="N15" s="14"/>
       <c r="O15" s="14" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="P15" s="14"/>
       <c r="Q15" s="14"/>
@@ -15526,7 +15536,7 @@
       <c r="W15" s="14"/>
       <c r="X15" s="14"/>
       <c r="Y15" s="14"/>
-      <c r="Z15" s="0"/>
+      <c r="Z15" s="14"/>
       <c r="AA15" s="0"/>
       <c r="AB15" s="0"/>
       <c r="AC15" s="0"/>
@@ -16538,25 +16548,25 @@
         <v>1652</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J16" s="14" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K16" s="13" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L16" s="13" t="n">
         <v>10</v>
@@ -16566,7 +16576,7 @@
       </c>
       <c r="N16" s="14"/>
       <c r="O16" s="14" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P16" s="14"/>
       <c r="Q16" s="14"/>
@@ -16578,7 +16588,7 @@
       <c r="W16" s="14"/>
       <c r="X16" s="14"/>
       <c r="Y16" s="14"/>
-      <c r="Z16" s="0"/>
+      <c r="Z16" s="14"/>
       <c r="AA16" s="0"/>
       <c r="AB16" s="0"/>
       <c r="AC16" s="0"/>
@@ -17590,25 +17600,25 @@
         <v>1653</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J17" s="14" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K17" s="13" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L17" s="13" t="n">
         <v>10</v>
@@ -17623,7 +17633,7 @@
         <v>4607065375966</v>
       </c>
       <c r="P17" s="14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q17" s="14"/>
       <c r="R17" s="14"/>
@@ -17634,7 +17644,7 @@
       <c r="W17" s="14"/>
       <c r="X17" s="14"/>
       <c r="Y17" s="14"/>
-      <c r="Z17" s="0"/>
+      <c r="Z17" s="14"/>
       <c r="AA17" s="0"/>
       <c r="AB17" s="0"/>
       <c r="AC17" s="0"/>
@@ -18646,25 +18656,25 @@
         <v>1655</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J18" s="14" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K18" s="13" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L18" s="13" t="n">
         <v>10</v>
@@ -18679,7 +18689,7 @@
         <v>4607065376000</v>
       </c>
       <c r="P18" s="14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q18" s="14"/>
       <c r="R18" s="14"/>
@@ -18690,7 +18700,7 @@
       <c r="W18" s="14"/>
       <c r="X18" s="14"/>
       <c r="Y18" s="14"/>
-      <c r="Z18" s="0"/>
+      <c r="Z18" s="14"/>
       <c r="AA18" s="0"/>
       <c r="AB18" s="0"/>
       <c r="AC18" s="0"/>
@@ -19702,25 +19712,25 @@
         <v>1656</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J19" s="14" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K19" s="13" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L19" s="13" t="n">
         <v>10</v>
@@ -19735,7 +19745,7 @@
         <v>4607065376062</v>
       </c>
       <c r="P19" s="14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q19" s="14"/>
       <c r="R19" s="14"/>
@@ -19746,7 +19756,7 @@
       <c r="W19" s="14"/>
       <c r="X19" s="14"/>
       <c r="Y19" s="14"/>
-      <c r="Z19" s="0"/>
+      <c r="Z19" s="14"/>
       <c r="AA19" s="0"/>
       <c r="AB19" s="0"/>
       <c r="AC19" s="0"/>
@@ -20758,25 +20768,25 @@
         <v>1671</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J20" s="14" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K20" s="13" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L20" s="13" t="n">
         <v>10</v>
@@ -20786,21 +20796,21 @@
       </c>
       <c r="N20" s="14"/>
       <c r="O20" s="14" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="P20" s="14"/>
       <c r="Q20" s="14"/>
       <c r="R20" s="14"/>
       <c r="S20" s="14"/>
       <c r="T20" s="14"/>
-      <c r="U20" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="V20" s="14"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="14" t="s">
+        <v>93</v>
+      </c>
       <c r="W20" s="14"/>
       <c r="X20" s="14"/>
       <c r="Y20" s="14"/>
-      <c r="Z20" s="0"/>
+      <c r="Z20" s="14"/>
       <c r="AA20" s="0"/>
       <c r="AB20" s="0"/>
       <c r="AC20" s="0"/>
@@ -21812,25 +21822,25 @@
         <v>1673</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J21" s="14" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K21" s="13" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L21" s="13" t="n">
         <v>10</v>
@@ -21840,21 +21850,21 @@
       </c>
       <c r="N21" s="14"/>
       <c r="O21" s="14" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="P21" s="14"/>
       <c r="Q21" s="14"/>
       <c r="R21" s="14"/>
       <c r="S21" s="14"/>
-      <c r="T21" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="U21" s="14"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="14" t="s">
+        <v>93</v>
+      </c>
       <c r="V21" s="14"/>
       <c r="W21" s="14"/>
       <c r="X21" s="14"/>
       <c r="Y21" s="14"/>
-      <c r="Z21" s="0"/>
+      <c r="Z21" s="14"/>
       <c r="AA21" s="0"/>
       <c r="AB21" s="0"/>
       <c r="AC21" s="0"/>
@@ -22866,25 +22876,25 @@
         <v>1675</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I22" s="13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J22" s="14" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K22" s="13" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L22" s="13" t="n">
         <v>10</v>
@@ -22894,7 +22904,7 @@
       </c>
       <c r="N22" s="14"/>
       <c r="O22" s="14" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="P22" s="14"/>
       <c r="Q22" s="14"/>
@@ -22906,7 +22916,7 @@
       <c r="W22" s="14"/>
       <c r="X22" s="14"/>
       <c r="Y22" s="14"/>
-      <c r="Z22" s="0"/>
+      <c r="Z22" s="14"/>
       <c r="AA22" s="0"/>
       <c r="AB22" s="0"/>
       <c r="AC22" s="0"/>
@@ -23918,53 +23928,53 @@
         <v>1677</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J23" s="14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K23" s="13" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L23" s="13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M23" s="2" t="n">
         <v>0</v>
       </c>
       <c r="N23" s="14"/>
       <c r="O23" s="14" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="P23" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q23" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="R23" s="14"/>
+        <v>35</v>
+      </c>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14" t="s">
+        <v>102</v>
+      </c>
       <c r="S23" s="14"/>
       <c r="T23" s="14"/>
       <c r="U23" s="14"/>
-      <c r="V23" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="W23" s="14"/>
+      <c r="V23" s="14"/>
+      <c r="W23" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="X23" s="14"/>
       <c r="Y23" s="14"/>
-      <c r="Z23" s="0"/>
+      <c r="Z23" s="14"/>
       <c r="AA23" s="0"/>
       <c r="AB23" s="0"/>
       <c r="AC23" s="0"/>
@@ -24976,28 +24986,28 @@
         <v>1678</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K24" s="13" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L24" s="13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M24" s="0"/>
       <c r="N24" s="14"/>
@@ -25010,11 +25020,11 @@
       <c r="S24" s="14"/>
       <c r="T24" s="14"/>
       <c r="U24" s="14"/>
-      <c r="V24" s="4"/>
-      <c r="W24" s="14"/>
+      <c r="V24" s="14"/>
+      <c r="W24" s="4"/>
       <c r="X24" s="14"/>
       <c r="Y24" s="14"/>
-      <c r="Z24" s="0"/>
+      <c r="Z24" s="14"/>
       <c r="AA24" s="0"/>
       <c r="AB24" s="0"/>
       <c r="AC24" s="0"/>
@@ -26026,49 +26036,49 @@
         <v>1680</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="J25" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K25" s="13" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L25" s="13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M25" s="0"/>
       <c r="N25" s="14"/>
       <c r="O25" s="14" t="s">
-        <v>111</v>
+        <v>36</v>
       </c>
       <c r="P25" s="14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q25" s="14"/>
       <c r="R25" s="14"/>
       <c r="S25" s="14"/>
-      <c r="T25" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="U25" s="14"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="14" t="s">
+        <v>93</v>
+      </c>
       <c r="V25" s="14"/>
       <c r="W25" s="14"/>
       <c r="X25" s="14"/>
       <c r="Y25" s="14"/>
-      <c r="Z25" s="0"/>
+      <c r="Z25" s="14"/>
       <c r="AA25" s="0"/>
       <c r="AB25" s="0"/>
       <c r="AC25" s="0"/>
@@ -27080,36 +27090,36 @@
         <v>1723</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H26" s="14" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J26" s="14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K26" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L26" s="13" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M26" s="0"/>
       <c r="N26" s="14"/>
       <c r="O26" s="14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P26" s="14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q26" s="14"/>
       <c r="R26" s="14"/>
@@ -27120,7 +27130,7 @@
       <c r="W26" s="14"/>
       <c r="X26" s="14"/>
       <c r="Y26" s="14"/>
-      <c r="Z26" s="0"/>
+      <c r="Z26" s="14"/>
       <c r="AA26" s="0"/>
       <c r="AB26" s="0"/>
       <c r="AC26" s="0"/>
@@ -28132,25 +28142,25 @@
         <v>1645</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L27" s="2" t="n">
         <v>10</v>
@@ -28165,7 +28175,7 @@
         <v>5000159438698</v>
       </c>
       <c r="P27" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
@@ -28175,7 +28185,7 @@
       <c r="V27" s="4"/>
       <c r="W27" s="4"/>
       <c r="X27" s="4"/>
-      <c r="Y27" s="0"/>
+      <c r="Y27" s="4"/>
       <c r="Z27" s="0"/>
       <c r="AA27" s="0"/>
       <c r="AB27" s="0"/>
@@ -29188,25 +29198,25 @@
         <v>1647</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L28" s="2" t="n">
         <v>10</v>
@@ -29221,7 +29231,7 @@
         <v>4607065003838</v>
       </c>
       <c r="P28" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
@@ -29231,7 +29241,7 @@
       <c r="V28" s="4"/>
       <c r="W28" s="4"/>
       <c r="X28" s="4"/>
-      <c r="Y28" s="0"/>
+      <c r="Y28" s="4"/>
       <c r="Z28" s="0"/>
       <c r="AA28" s="0"/>
       <c r="AB28" s="0"/>
@@ -30244,25 +30254,25 @@
         <v>1654</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L29" s="2" t="n">
         <v>10</v>
@@ -30277,7 +30287,7 @@
         <v>4011100157361</v>
       </c>
       <c r="P29" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
@@ -30287,7 +30297,7 @@
       <c r="V29" s="4"/>
       <c r="W29" s="4"/>
       <c r="X29" s="4"/>
-      <c r="Y29" s="0"/>
+      <c r="Y29" s="4"/>
       <c r="Z29" s="0"/>
       <c r="AA29" s="0"/>
       <c r="AB29" s="0"/>
@@ -31300,25 +31310,25 @@
         <v>1674</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L30" s="2" t="n">
         <v>10</v>
@@ -31328,20 +31338,20 @@
       </c>
       <c r="N30" s="4"/>
       <c r="O30" s="14" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P30" s="4"/>
-      <c r="Q30" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="R30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="14" t="s">
+        <v>34</v>
+      </c>
       <c r="S30" s="4"/>
       <c r="T30" s="4"/>
       <c r="U30" s="4"/>
       <c r="V30" s="4"/>
       <c r="W30" s="4"/>
       <c r="X30" s="4"/>
-      <c r="Y30" s="0"/>
+      <c r="Y30" s="4"/>
       <c r="Z30" s="0"/>
       <c r="AA30" s="0"/>
       <c r="AB30" s="0"/>
@@ -32354,25 +32364,25 @@
         <v>1676</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L31" s="2" t="n">
         <v>10</v>
@@ -32382,22 +32392,22 @@
       </c>
       <c r="N31" s="4"/>
       <c r="O31" s="14" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="P31" s="4"/>
-      <c r="Q31" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="R31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="S31" s="4"/>
       <c r="T31" s="4"/>
-      <c r="U31" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="V31" s="4"/>
+      <c r="U31" s="4"/>
+      <c r="V31" s="4" t="s">
+        <v>93</v>
+      </c>
       <c r="W31" s="4"/>
       <c r="X31" s="4"/>
-      <c r="Y31" s="0"/>
+      <c r="Y31" s="4"/>
       <c r="Z31" s="0"/>
       <c r="AA31" s="0"/>
       <c r="AB31" s="0"/>
@@ -33410,25 +33420,25 @@
         <v>2130</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F32" s="18" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G32" s="16" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L32" s="2" t="n">
         <v>10</v>
@@ -33438,20 +33448,20 @@
       </c>
       <c r="N32" s="4"/>
       <c r="O32" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P32" s="4"/>
-      <c r="Q32" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="R32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="S32" s="4"/>
       <c r="T32" s="4"/>
       <c r="U32" s="4"/>
       <c r="V32" s="4"/>
       <c r="W32" s="4"/>
       <c r="X32" s="4"/>
-      <c r="Y32" s="0"/>
+      <c r="Y32" s="4"/>
       <c r="Z32" s="0"/>
       <c r="AA32" s="0"/>
       <c r="AB32" s="0"/>
@@ -34462,25 +34472,25 @@
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F33" s="18" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G33" s="20" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L33" s="2" t="n">
         <v>10</v>
@@ -34490,22 +34500,22 @@
       </c>
       <c r="N33" s="4"/>
       <c r="O33" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="P33" s="4"/>
-      <c r="Q33" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="R33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="S33" s="4"/>
-      <c r="T33" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="U33" s="4"/>
+      <c r="T33" s="4"/>
+      <c r="U33" s="4" t="s">
+        <v>93</v>
+      </c>
       <c r="V33" s="4"/>
       <c r="W33" s="4"/>
       <c r="X33" s="4"/>
-      <c r="Y33" s="0"/>
+      <c r="Y33" s="4"/>
       <c r="Z33" s="0"/>
       <c r="AA33" s="0"/>
       <c r="AB33" s="0"/>
@@ -35516,25 +35526,25 @@
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F34" s="18" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G34" s="20" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L34" s="2" t="n">
         <v>10</v>
@@ -35544,20 +35554,20 @@
       </c>
       <c r="N34" s="4"/>
       <c r="O34" s="14" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P34" s="4"/>
-      <c r="Q34" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="R34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="S34" s="4"/>
       <c r="T34" s="4"/>
       <c r="U34" s="4"/>
       <c r="V34" s="4"/>
       <c r="W34" s="4"/>
       <c r="X34" s="4"/>
-      <c r="Y34" s="0"/>
+      <c r="Y34" s="4"/>
       <c r="Z34" s="0"/>
       <c r="AA34" s="0"/>
       <c r="AB34" s="0"/>
@@ -36568,25 +36578,25 @@
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F35" s="18" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G35" s="20" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L35" s="2" t="n">
         <v>10</v>
@@ -36596,20 +36606,20 @@
       </c>
       <c r="N35" s="4"/>
       <c r="O35" s="14" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P35" s="4"/>
-      <c r="Q35" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="R35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="S35" s="4"/>
       <c r="T35" s="4"/>
       <c r="U35" s="4"/>
       <c r="V35" s="4"/>
       <c r="W35" s="4"/>
       <c r="X35" s="4"/>
-      <c r="Y35" s="0"/>
+      <c r="Y35" s="4"/>
       <c r="Z35" s="0"/>
       <c r="AA35" s="0"/>
       <c r="AB35" s="0"/>
@@ -37620,25 +37630,25 @@
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F36" s="18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G36" s="16" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L36" s="2" t="n">
         <v>10</v>
@@ -37653,7 +37663,7 @@
         <v>4607065372057</v>
       </c>
       <c r="P36" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
@@ -37663,7 +37673,7 @@
       <c r="V36" s="4"/>
       <c r="W36" s="4"/>
       <c r="X36" s="4"/>
-      <c r="Y36" s="0"/>
+      <c r="Y36" s="4"/>
       <c r="Z36" s="0"/>
       <c r="AA36" s="0"/>
       <c r="AB36" s="0"/>
@@ -38674,25 +38684,25 @@
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F37" s="18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L37" s="2" t="n">
         <v>10</v>
@@ -38707,7 +38717,7 @@
         <v>5000159373111</v>
       </c>
       <c r="P37" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
@@ -38717,7 +38727,7 @@
       <c r="V37" s="4"/>
       <c r="W37" s="4"/>
       <c r="X37" s="4"/>
-      <c r="Y37" s="0"/>
+      <c r="Y37" s="4"/>
       <c r="Z37" s="0"/>
       <c r="AA37" s="0"/>
       <c r="AB37" s="0"/>
@@ -39730,28 +39740,28 @@
         <v>1587</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F38" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I38" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G38" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="J38" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L38" s="13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M38" s="0"/>
       <c r="N38" s="4"/>
@@ -39767,7 +39777,7 @@
       <c r="V38" s="4"/>
       <c r="W38" s="4"/>
       <c r="X38" s="4"/>
-      <c r="Y38" s="0"/>
+      <c r="Y38" s="4"/>
       <c r="Z38" s="0"/>
       <c r="AA38" s="0"/>
       <c r="AB38" s="0"/>
@@ -40780,28 +40790,28 @@
         <v>1590</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F39" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I39" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G39" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="J39" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L39" s="13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M39" s="0"/>
       <c r="N39" s="4"/>
@@ -40817,7 +40827,7 @@
       <c r="V39" s="4"/>
       <c r="W39" s="4"/>
       <c r="X39" s="4"/>
-      <c r="Y39" s="0"/>
+      <c r="Y39" s="4"/>
       <c r="Z39" s="0"/>
       <c r="AA39" s="0"/>
       <c r="AB39" s="0"/>
@@ -41830,28 +41840,28 @@
         <v>1625</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L40" s="13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M40" s="0"/>
       <c r="N40" s="4"/>
@@ -41867,7 +41877,7 @@
       <c r="V40" s="4"/>
       <c r="W40" s="4"/>
       <c r="X40" s="4"/>
-      <c r="Y40" s="0"/>
+      <c r="Y40" s="4"/>
       <c r="Z40" s="0"/>
       <c r="AA40" s="0"/>
       <c r="AB40" s="0"/>
@@ -42880,28 +42890,28 @@
         <v>1626</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L41" s="13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M41" s="0"/>
       <c r="N41" s="4"/>
@@ -42917,7 +42927,7 @@
       <c r="V41" s="4"/>
       <c r="W41" s="4"/>
       <c r="X41" s="4"/>
-      <c r="Y41" s="0"/>
+      <c r="Y41" s="4"/>
       <c r="Z41" s="0"/>
       <c r="AA41" s="0"/>
       <c r="AB41" s="0"/>
@@ -43930,28 +43940,28 @@
         <v>1627</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L42" s="13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M42" s="0"/>
       <c r="N42" s="4"/>
@@ -43967,7 +43977,7 @@
       <c r="V42" s="4"/>
       <c r="W42" s="4"/>
       <c r="X42" s="4"/>
-      <c r="Y42" s="0"/>
+      <c r="Y42" s="4"/>
       <c r="Z42" s="0"/>
       <c r="AA42" s="0"/>
       <c r="AB42" s="0"/>
@@ -44980,28 +44990,28 @@
         <v>1628</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L43" s="13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M43" s="0"/>
       <c r="N43" s="4"/>
@@ -45017,7 +45027,7 @@
       <c r="V43" s="4"/>
       <c r="W43" s="4"/>
       <c r="X43" s="4"/>
-      <c r="Y43" s="0"/>
+      <c r="Y43" s="4"/>
       <c r="Z43" s="0"/>
       <c r="AA43" s="0"/>
       <c r="AB43" s="0"/>
@@ -46030,28 +46040,28 @@
         <v>1679</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G44" s="16" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L44" s="13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M44" s="0"/>
       <c r="N44" s="4"/>
@@ -46067,7 +46077,7 @@
       <c r="V44" s="4"/>
       <c r="W44" s="4"/>
       <c r="X44" s="4"/>
-      <c r="Y44" s="0"/>
+      <c r="Y44" s="4"/>
       <c r="Z44" s="0"/>
       <c r="AA44" s="0"/>
       <c r="AB44" s="0"/>
@@ -47080,28 +47090,28 @@
         <v>1681</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F45" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G45" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I45" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G45" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="J45" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L45" s="13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M45" s="0"/>
       <c r="N45" s="4"/>
@@ -47117,7 +47127,7 @@
       <c r="V45" s="4"/>
       <c r="W45" s="4"/>
       <c r="X45" s="4"/>
-      <c r="Y45" s="0"/>
+      <c r="Y45" s="4"/>
       <c r="Z45" s="0"/>
       <c r="AA45" s="0"/>
       <c r="AB45" s="0"/>
@@ -48130,25 +48140,25 @@
         <v>1682</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F46" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I46" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G46" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="J46" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L46" s="2" t="n">
         <v>776729</v>
@@ -48167,7 +48177,7 @@
       <c r="V46" s="4"/>
       <c r="W46" s="4"/>
       <c r="X46" s="4"/>
-      <c r="Y46" s="0"/>
+      <c r="Y46" s="4"/>
       <c r="Z46" s="0"/>
       <c r="AA46" s="0"/>
       <c r="AB46" s="0"/>
@@ -49170,7 +49180,7 @@
     </row>
     <row r="47" customFormat="false" ht="23.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B47" s="2" t="n">
         <v>2018</v>
@@ -49182,46 +49192,46 @@
         <v>1586</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H47" s="14" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J47" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K47" s="13" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L47" s="13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M47" s="0"/>
       <c r="N47" s="14"/>
       <c r="O47" s="14" t="s">
-        <v>111</v>
+        <v>36</v>
       </c>
       <c r="P47" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q47" s="14"/>
+        <v>152</v>
+      </c>
+      <c r="Q47" s="4"/>
       <c r="R47" s="14"/>
       <c r="S47" s="14"/>
       <c r="T47" s="14"/>
       <c r="U47" s="14"/>
-      <c r="V47" s="4"/>
-      <c r="W47" s="14"/>
+      <c r="V47" s="14"/>
+      <c r="W47" s="4"/>
       <c r="X47" s="14"/>
-      <c r="Y47" s="0"/>
+      <c r="Y47" s="14"/>
       <c r="Z47" s="0"/>
       <c r="AA47" s="0"/>
       <c r="AB47" s="0"/>
@@ -50232,28 +50242,28 @@
       </c>
       <c r="D48" s="13"/>
       <c r="E48" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G48" s="16" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L48" s="13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M48" s="0"/>
       <c r="N48" s="4"/>
@@ -50269,7 +50279,7 @@
       <c r="V48" s="4"/>
       <c r="W48" s="4"/>
       <c r="X48" s="4"/>
-      <c r="Y48" s="0"/>
+      <c r="Y48" s="4"/>
       <c r="Z48" s="0"/>
       <c r="AA48" s="0"/>
       <c r="AB48" s="0"/>
@@ -51282,28 +51292,28 @@
         <v>1690</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L49" s="13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M49" s="0"/>
       <c r="N49" s="4"/>
@@ -51319,7 +51329,7 @@
       <c r="V49" s="4"/>
       <c r="W49" s="4"/>
       <c r="X49" s="4"/>
-      <c r="Y49" s="0"/>
+      <c r="Y49" s="4"/>
       <c r="Z49" s="0"/>
       <c r="AA49" s="0"/>
       <c r="AB49" s="0"/>
@@ -52332,25 +52342,25 @@
         <v>1702</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F50" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I50" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G50" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="J50" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L50" s="2" t="n">
         <v>776729</v>
@@ -52369,7 +52379,7 @@
       <c r="V50" s="4"/>
       <c r="W50" s="4"/>
       <c r="X50" s="4"/>
-      <c r="Y50" s="0"/>
+      <c r="Y50" s="4"/>
       <c r="Z50" s="0"/>
       <c r="AA50" s="0"/>
       <c r="AB50" s="0"/>
@@ -53372,7 +53382,7 @@
     </row>
     <row r="51" customFormat="false" ht="23.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B51" s="2" t="n">
         <v>2018</v>
@@ -53384,36 +53394,36 @@
         <v>1589</v>
       </c>
       <c r="E51" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H51" s="14" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J51" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K51" s="13" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L51" s="13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M51" s="0"/>
       <c r="N51" s="14"/>
       <c r="O51" s="14" t="s">
-        <v>111</v>
+        <v>36</v>
       </c>
       <c r="P51" s="14" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q51" s="14"/>
       <c r="R51" s="14"/>
@@ -53423,7 +53433,7 @@
       <c r="V51" s="14"/>
       <c r="W51" s="14"/>
       <c r="X51" s="14"/>
-      <c r="Y51" s="0"/>
+      <c r="Y51" s="14"/>
       <c r="Z51" s="0"/>
       <c r="AA51" s="0"/>
       <c r="AB51" s="0"/>
@@ -54436,28 +54446,28 @@
         <v>1560</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G52" s="16" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L52" s="13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M52" s="0"/>
       <c r="N52" s="4"/>
@@ -54473,7 +54483,7 @@
       <c r="V52" s="4"/>
       <c r="W52" s="4"/>
       <c r="X52" s="4"/>
-      <c r="Y52" s="0"/>
+      <c r="Y52" s="4"/>
       <c r="Z52" s="0"/>
       <c r="AA52" s="0"/>
       <c r="AB52" s="0"/>
@@ -55486,28 +55496,28 @@
         <v>1561</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G53" s="16" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L53" s="13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M53" s="0"/>
       <c r="N53" s="4"/>
@@ -55523,7 +55533,7 @@
       <c r="V53" s="4"/>
       <c r="W53" s="4"/>
       <c r="X53" s="4"/>
-      <c r="Y53" s="0"/>
+      <c r="Y53" s="4"/>
       <c r="Z53" s="0"/>
       <c r="AA53" s="0"/>
       <c r="AB53" s="0"/>
@@ -56536,28 +56546,28 @@
         <v>1562</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G54" s="16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L54" s="13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M54" s="0"/>
       <c r="N54" s="4"/>
@@ -56573,7 +56583,7 @@
       <c r="V54" s="4"/>
       <c r="W54" s="4"/>
       <c r="X54" s="4"/>
-      <c r="Y54" s="0"/>
+      <c r="Y54" s="4"/>
       <c r="Z54" s="0"/>
       <c r="AA54" s="0"/>
       <c r="AB54" s="0"/>
@@ -57586,28 +57596,28 @@
         <v>1588</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G55" s="21" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L55" s="13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M55" s="0"/>
       <c r="N55" s="4"/>
@@ -57623,7 +57633,7 @@
       <c r="V55" s="4"/>
       <c r="W55" s="4"/>
       <c r="X55" s="4"/>
-      <c r="Y55" s="0"/>
+      <c r="Y55" s="4"/>
       <c r="Z55" s="0"/>
       <c r="AA55" s="0"/>
       <c r="AB55" s="0"/>
@@ -58636,28 +58646,28 @@
         <v>1563</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G56" s="16" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L56" s="13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M56" s="0"/>
       <c r="N56" s="4"/>
@@ -58673,7 +58683,7 @@
       <c r="V56" s="4"/>
       <c r="W56" s="4"/>
       <c r="X56" s="4"/>
-      <c r="Y56" s="0"/>
+      <c r="Y56" s="4"/>
       <c r="Z56" s="0"/>
       <c r="AA56" s="0"/>
       <c r="AB56" s="0"/>
@@ -59686,28 +59696,28 @@
         <v>1564</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G57" s="16" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L57" s="13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M57" s="0"/>
       <c r="N57" s="4"/>
@@ -59723,7 +59733,7 @@
       <c r="V57" s="4"/>
       <c r="W57" s="4"/>
       <c r="X57" s="4"/>
-      <c r="Y57" s="0"/>
+      <c r="Y57" s="4"/>
       <c r="Z57" s="0"/>
       <c r="AA57" s="0"/>
       <c r="AB57" s="0"/>
@@ -60734,28 +60744,28 @@
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F58" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G58" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I58" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G58" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="H58" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="J58" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L58" s="13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M58" s="0"/>
       <c r="N58" s="4"/>
@@ -60771,7 +60781,7 @@
       <c r="V58" s="4"/>
       <c r="W58" s="4"/>
       <c r="X58" s="4"/>
-      <c r="Y58" s="0"/>
+      <c r="Y58" s="4"/>
       <c r="Z58" s="0"/>
       <c r="AA58" s="0"/>
       <c r="AB58" s="0"/>
@@ -61784,23 +61794,23 @@
         <v>1624</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H59" s="14" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J59" s="4"/>
       <c r="K59" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L59" s="2" t="n">
         <v>776682</v>
@@ -61817,7 +61827,7 @@
       <c r="V59" s="4"/>
       <c r="W59" s="4"/>
       <c r="X59" s="4"/>
-      <c r="Y59" s="0"/>
+      <c r="Y59" s="4"/>
       <c r="Z59" s="0"/>
       <c r="AA59" s="0"/>
       <c r="AB59" s="0"/>
@@ -62820,7 +62830,7 @@
     </row>
     <row r="60" customFormat="false" ht="23.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B60" s="2" t="n">
         <v>2018</v>
@@ -62830,43 +62840,43 @@
       </c>
       <c r="D60" s="0"/>
       <c r="E60" s="19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F60" s="18" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G60" s="16" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H60" s="22" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L60" s="13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M60" s="0"/>
       <c r="N60" s="4"/>
       <c r="O60" s="14"/>
       <c r="P60" s="4"/>
       <c r="Q60" s="4"/>
-      <c r="R60" s="14"/>
-      <c r="S60" s="4"/>
+      <c r="R60" s="4"/>
+      <c r="S60" s="14"/>
       <c r="T60" s="4"/>
       <c r="U60" s="4"/>
       <c r="V60" s="4"/>
       <c r="W60" s="4"/>
       <c r="X60" s="4"/>
-      <c r="Y60" s="1"/>
-      <c r="Z60" s="0"/>
+      <c r="Y60" s="4"/>
+      <c r="Z60" s="1"/>
       <c r="AA60" s="0"/>
       <c r="AB60" s="0"/>
       <c r="AC60" s="0"/>
@@ -63868,7 +63878,7 @@
     </row>
     <row r="61" customFormat="false" ht="23.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B61" s="2" t="n">
         <v>2018</v>
@@ -63878,43 +63888,43 @@
       </c>
       <c r="D61" s="0"/>
       <c r="E61" s="19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F61" s="18" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G61" s="16" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H61" s="22" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L61" s="13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M61" s="0"/>
       <c r="N61" s="4"/>
       <c r="O61" s="14"/>
       <c r="P61" s="4"/>
       <c r="Q61" s="4"/>
-      <c r="R61" s="14"/>
-      <c r="S61" s="4"/>
+      <c r="R61" s="4"/>
+      <c r="S61" s="14"/>
       <c r="T61" s="4"/>
       <c r="U61" s="4"/>
       <c r="V61" s="4"/>
       <c r="W61" s="4"/>
       <c r="X61" s="4"/>
-      <c r="Y61" s="1"/>
-      <c r="Z61" s="0"/>
+      <c r="Y61" s="4"/>
+      <c r="Z61" s="1"/>
       <c r="AA61" s="0"/>
       <c r="AB61" s="0"/>
       <c r="AC61" s="0"/>
@@ -64922,43 +64932,44 @@
         <v>2512</v>
       </c>
       <c r="E62" s="19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F62" s="18" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G62" s="21" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H62" s="23" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I62" s="13" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J62" s="4"/>
       <c r="K62" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L62" s="13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="4"/>
       <c r="O62" s="24" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P62" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="R62" s="4"/>
+        <v>35</v>
+      </c>
+      <c r="Q62" s="4"/>
       <c r="S62" s="4"/>
       <c r="T62" s="4"/>
       <c r="U62" s="4"/>
       <c r="V62" s="4"/>
       <c r="W62" s="4"/>
       <c r="X62" s="4"/>
-      <c r="Y62" s="14"/>
+      <c r="Y62" s="4"/>
+      <c r="Z62" s="14"/>
     </row>
     <row r="63" customFormat="false" ht="23.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B63" s="2" t="n">
@@ -64969,43 +64980,44 @@
       </c>
       <c r="D63" s="0"/>
       <c r="E63" s="19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F63" s="18" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G63" s="21" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H63" s="23" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I63" s="13" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J63" s="4"/>
       <c r="K63" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L63" s="13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N63" s="4"/>
       <c r="O63" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P63" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q63" s="0"/>
-      <c r="R63" s="4"/>
+        <v>35</v>
+      </c>
+      <c r="Q63" s="4"/>
+      <c r="R63" s="0"/>
       <c r="S63" s="4"/>
       <c r="T63" s="4"/>
       <c r="U63" s="4"/>
       <c r="V63" s="4"/>
       <c r="W63" s="4"/>
       <c r="X63" s="4"/>
-      <c r="Y63" s="14"/>
+      <c r="Y63" s="4"/>
+      <c r="Z63" s="14"/>
     </row>
     <row r="64" customFormat="false" ht="23.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B64" s="2" t="n">
@@ -65016,43 +65028,44 @@
       </c>
       <c r="D64" s="0"/>
       <c r="E64" s="19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F64" s="18" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G64" s="21" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H64" s="23" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I64" s="13" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J64" s="4"/>
       <c r="K64" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L64" s="13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N64" s="4"/>
       <c r="O64" s="14" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P64" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q64" s="0"/>
-      <c r="R64" s="4"/>
+        <v>35</v>
+      </c>
+      <c r="Q64" s="4"/>
+      <c r="R64" s="0"/>
       <c r="S64" s="4"/>
       <c r="T64" s="4"/>
       <c r="U64" s="4"/>
       <c r="V64" s="4"/>
       <c r="W64" s="4"/>
       <c r="X64" s="4"/>
-      <c r="Y64" s="14"/>
+      <c r="Y64" s="4"/>
+      <c r="Z64" s="14"/>
     </row>
     <row r="65" customFormat="false" ht="23.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B65" s="2" t="n">
@@ -65063,43 +65076,44 @@
       </c>
       <c r="D65" s="0"/>
       <c r="E65" s="19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F65" s="18" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G65" s="21" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H65" s="23" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I65" s="13" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J65" s="4"/>
       <c r="K65" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L65" s="13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N65" s="4"/>
       <c r="O65" s="14" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P65" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q65" s="0"/>
-      <c r="R65" s="4"/>
+        <v>35</v>
+      </c>
+      <c r="Q65" s="4"/>
+      <c r="R65" s="0"/>
       <c r="S65" s="4"/>
       <c r="T65" s="4"/>
       <c r="U65" s="4"/>
       <c r="V65" s="4"/>
       <c r="W65" s="4"/>
       <c r="X65" s="4"/>
-      <c r="Y65" s="14"/>
+      <c r="Y65" s="4"/>
+      <c r="Z65" s="14"/>
     </row>
     <row r="66" customFormat="false" ht="23.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B66" s="2" t="n">
@@ -65112,33 +65126,33 @@
         <v>1689</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G66" s="21" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H66" s="23" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J66" s="4"/>
       <c r="K66" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L66" s="13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N66" s="4"/>
       <c r="O66" s="14" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P66" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q66" s="4"/>
       <c r="R66" s="4"/>
@@ -65148,7 +65162,8 @@
       <c r="V66" s="4"/>
       <c r="W66" s="4"/>
       <c r="X66" s="4"/>
-      <c r="Y66" s="0"/>
+      <c r="Y66" s="4"/>
+      <c r="Z66" s="0"/>
     </row>
     <row r="67" customFormat="false" ht="23.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B67" s="2" t="n">
@@ -65161,47 +65176,48 @@
         <v>1688</v>
       </c>
       <c r="E67" s="19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F67" s="18" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G67" s="21" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H67" s="23" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I67" s="13" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="J67" s="4"/>
       <c r="K67" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L67" s="13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N67" s="4"/>
       <c r="O67" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P67" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q67" s="4"/>
+      <c r="R67" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Q67" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="R67" s="4"/>
       <c r="S67" s="4"/>
       <c r="T67" s="4"/>
       <c r="U67" s="4"/>
-      <c r="V67" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="W67" s="4"/>
+      <c r="V67" s="4"/>
+      <c r="W67" s="4" t="s">
+        <v>194</v>
+      </c>
       <c r="X67" s="4"/>
-      <c r="Y67" s="14"/>
+      <c r="Y67" s="4"/>
+      <c r="Z67" s="14"/>
     </row>
     <row r="68" customFormat="false" ht="23.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B68" s="2" t="n">
@@ -65211,43 +65227,44 @@
         <v>90001</v>
       </c>
       <c r="E68" s="19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F68" s="18" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G68" s="21" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H68" s="23" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I68" s="13" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J68" s="4"/>
       <c r="K68" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L68" s="13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N68" s="4"/>
       <c r="O68" s="14" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P68" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q68" s="1"/>
-      <c r="R68" s="4"/>
+        <v>35</v>
+      </c>
+      <c r="Q68" s="4"/>
+      <c r="R68" s="1"/>
       <c r="S68" s="4"/>
       <c r="T68" s="4"/>
       <c r="U68" s="4"/>
       <c r="V68" s="4"/>
       <c r="W68" s="4"/>
       <c r="X68" s="4"/>
-      <c r="Y68" s="14"/>
+      <c r="Y68" s="4"/>
+      <c r="Z68" s="14"/>
     </row>
     <row r="69" customFormat="false" ht="23.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B69" s="2" t="n">
@@ -65257,43 +65274,44 @@
         <v>90002</v>
       </c>
       <c r="E69" s="19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F69" s="18" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G69" s="21" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H69" s="23" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I69" s="13" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J69" s="4"/>
       <c r="K69" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L69" s="13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N69" s="4"/>
       <c r="O69" s="14" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P69" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q69" s="1"/>
-      <c r="R69" s="4"/>
+        <v>35</v>
+      </c>
+      <c r="Q69" s="4"/>
+      <c r="R69" s="1"/>
       <c r="S69" s="4"/>
       <c r="T69" s="4"/>
       <c r="U69" s="4"/>
       <c r="V69" s="4"/>
       <c r="W69" s="4"/>
       <c r="X69" s="4"/>
-      <c r="Y69" s="14"/>
+      <c r="Y69" s="4"/>
+      <c r="Z69" s="14"/>
     </row>
     <row r="70" customFormat="false" ht="23.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B70" s="2" t="n">
@@ -65303,43 +65321,44 @@
         <v>90003</v>
       </c>
       <c r="E70" s="19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F70" s="18" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G70" s="21" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H70" s="23" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I70" s="13" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J70" s="4"/>
       <c r="K70" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L70" s="13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N70" s="4"/>
       <c r="O70" s="14" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P70" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q70" s="1"/>
-      <c r="R70" s="4"/>
+        <v>206</v>
+      </c>
+      <c r="Q70" s="4"/>
+      <c r="R70" s="1"/>
       <c r="S70" s="4"/>
       <c r="T70" s="4"/>
       <c r="U70" s="4"/>
       <c r="V70" s="4"/>
       <c r="W70" s="4"/>
       <c r="X70" s="4"/>
-      <c r="Y70" s="14"/>
+      <c r="Y70" s="4"/>
+      <c r="Z70" s="14"/>
     </row>
     <row r="71" customFormat="false" ht="23.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B71" s="2" t="n">
@@ -65349,43 +65368,44 @@
         <v>2537</v>
       </c>
       <c r="E71" s="19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F71" s="18" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G71" s="21" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I71" s="13" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J71" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K71" s="13" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L71" s="13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N71" s="4"/>
       <c r="O71" s="4" t="n">
         <v>2537</v>
       </c>
       <c r="P71" s="4"/>
-      <c r="Q71" s="1"/>
-      <c r="R71" s="4"/>
+      <c r="Q71" s="4"/>
+      <c r="R71" s="1"/>
       <c r="S71" s="4"/>
       <c r="T71" s="4"/>
       <c r="U71" s="4"/>
       <c r="V71" s="4"/>
       <c r="W71" s="4"/>
       <c r="X71" s="4"/>
-      <c r="Y71" s="14"/>
+      <c r="Y71" s="4"/>
+      <c r="Z71" s="14"/>
     </row>
     <row r="72" customFormat="false" ht="23.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B72" s="2" t="n">
@@ -65395,35 +65415,35 @@
         <v>2527</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I72" s="12" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L72" s="2" t="n">
         <v>3</v>
       </c>
       <c r="O72" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:X72"/>
+  <autoFilter ref="B1:Y72"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -65448,118 +65468,118 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="43.4898785425101"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.4574898785425"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="43.8097165991903"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.6720647773279"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="43" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B2" s="44" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="43" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="45" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B4" s="44" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="45" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B5" s="44" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="45" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B6" s="44" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="45" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B7" s="44" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="45" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B8" s="44" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="45" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B9" s="44" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="45" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B10" s="44" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="46" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B11" s="44" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="46" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B12" s="44" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="46" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B13" s="44" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="46" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B14" s="44" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -65587,31 +65607,31 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="25" width="36.3117408906883"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="25" width="36.6356275303644"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="25" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="25" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="26" width="36.5263157894737"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="26" width="36.8502024291498"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="26" width="11.0323886639676"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="25" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E1" s="28"/>
     </row>
     <row r="2" customFormat="false" ht="93" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="29" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B2" s="27" t="n">
         <v>2310</v>
@@ -65620,12 +65640,12 @@
         <v>1846</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="93" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="29" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B3" s="27" t="n">
         <v>2310</v>
@@ -65634,12 +65654,12 @@
         <v>1847</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="41" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="29" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B4" s="27" t="n">
         <v>2310</v>
@@ -65648,12 +65668,12 @@
         <v>1846</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="29" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B5" s="27" t="n">
         <v>2310</v>
@@ -65662,7 +65682,7 @@
         <v>1847</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -65689,30 +65709,30 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="25" width="36.3117408906883"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="25" width="36.6356275303644"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="26" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="26" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="26" width="36.5263157894737"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="26" width="36.8502024291498"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="26" width="11.0323886639676"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="25" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="93" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="29" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B2" s="27" t="n">
         <v>2330</v>
@@ -65721,12 +65741,12 @@
         <v>1848</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="93" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="29" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B3" s="27" t="n">
         <v>2330</v>
@@ -65735,12 +65755,12 @@
         <v>1849</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="41" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="29" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B4" s="27" t="n">
         <v>2330</v>
@@ -65749,12 +65769,12 @@
         <v>1848</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="29" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B5" s="27" t="n">
         <v>2330</v>
@@ -65763,7 +65783,7 @@
         <v>1849</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -65790,109 +65810,109 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.9230769230769"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="64.2712550607287"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="64.8056680161943"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="30" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D1" s="31" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="275" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="32" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B2" s="30" t="n">
         <v>2254</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="275" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="32" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B3" s="30" t="n">
         <v>2254</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="275" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="32" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B4" s="30" t="n">
         <v>2254</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="80" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="32" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B5" s="30" t="n">
         <v>2254</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="80" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="32" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B6" s="30" t="n">
         <v>2254</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="80" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="32" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B7" s="30" t="n">
         <v>2254</v>
       </c>
       <c r="C7" s="32" t="s">
+        <v>232</v>
+      </c>
+      <c r="D7" s="32" t="s">
         <v>231</v>
-      </c>
-      <c r="D7" s="32" t="s">
-        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -65919,109 +65939,109 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="33" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="33" width="25.9230769230769"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="33" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="33" width="65.5587044534413"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="33" width="35.5627530364373"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="33" width="66.0931174089069"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="33" width="35.8866396761134"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="33" width="11.0323886639676"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="30" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D1" s="31" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="327" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="32" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B2" s="30" t="n">
         <v>2254</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="327" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="32" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B3" s="30" t="n">
         <v>2254</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="327" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="32" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B4" s="30" t="n">
         <v>2254</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="327" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="32" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B5" s="30" t="n">
         <v>2254</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="327" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="32" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B6" s="30" t="n">
         <v>2254</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="327" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="32" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B7" s="30" t="n">
         <v>2254</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -66048,89 +66068,89 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="25" width="53.9878542510122"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="25" width="36.5263157894737"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="25" width="54.417004048583"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="25" width="36.8502024291498"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="25" width="10.7125506072875"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="34" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="35" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="35" t="s">
+        <v>242</v>
+      </c>
+      <c r="B3" s="25" t="s">
         <v>241</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="35" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="35" t="s">
+        <v>245</v>
+      </c>
+      <c r="B5" s="25" t="s">
         <v>244</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="35" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="35" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="35" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="35" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="35" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -66157,32 +66177,32 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="50.2388663967611"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="36" width="38.668016194332"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="36" width="35.5627530364373"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="36" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="27.6356275303644"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="50.668016194332"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="36" width="38.9919028340081"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="36" width="35.8866396761134"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="36" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="27.8502024291498"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="23.3522267206478"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" s="36" customFormat="true" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="37" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C1" s="37" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D1" s="37" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E1" s="37" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F1" s="38" t="s">
         <v>0</v>
@@ -66191,69 +66211,69 @@
         <v>8</v>
       </c>
       <c r="H1" s="38" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="33" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C2" s="36" t="n">
         <v>1.6</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E2" s="36" t="n">
         <v>1834</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C3" s="36" t="n">
         <v>1.6</v>
       </c>
       <c r="D3" s="36" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E3" s="36" t="n">
         <v>1832</v>
       </c>
       <c r="F3" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>260</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>258</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C4" s="36" t="n">
         <v>1.6</v>
@@ -66265,47 +66285,47 @@
         <v>1832</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C5" s="36" t="n">
         <v>2.4</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E5" s="36" t="n">
         <v>1836</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C6" s="36" t="n">
         <v>2.4</v>
@@ -66317,47 +66337,47 @@
         <v>1836</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C7" s="36" t="n">
         <v>3</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E7" s="36" t="n">
         <v>1838</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C8" s="36" t="n">
         <v>3</v>
@@ -66369,21 +66389,21 @@
         <v>1838</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C9" s="36" t="n">
         <v>3</v>
@@ -66395,21 +66415,21 @@
         <v>1838</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C10" s="36" t="n">
         <v>3</v>
@@ -66421,21 +66441,21 @@
         <v>1838</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C11" s="36" t="n">
         <v>4</v>
@@ -66447,47 +66467,47 @@
         <v>1840</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C12" s="36" t="n">
         <v>4</v>
       </c>
       <c r="D12" s="36" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E12" s="36" t="n">
         <v>1840</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C13" s="36" t="n">
         <v>4</v>
@@ -66499,47 +66519,47 @@
         <v>1840</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C14" s="36" t="n">
         <v>5</v>
       </c>
       <c r="D14" s="36" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E14" s="36" t="n">
         <v>1842</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C15" s="36" t="n">
         <v>5</v>
@@ -66551,47 +66571,47 @@
         <v>1842</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C16" s="36" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D16" s="36" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E16" s="36" t="n">
         <v>1829</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C17" s="36" t="n">
         <v>0</v>
@@ -66603,47 +66623,47 @@
         <v>1829</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C18" s="36" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D18" s="36" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E18" s="36" t="n">
         <v>1826</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C19" s="36" t="n">
         <v>0</v>
@@ -66655,21 +66675,21 @@
         <v>1826</v>
       </c>
       <c r="F19" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="H19" s="0" t="s">
         <v>277</v>
-      </c>
-      <c r="G19" s="0" t="s">
-        <v>258</v>
-      </c>
-      <c r="H19" s="0" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C20" s="36" t="n">
         <v>0</v>
@@ -66681,21 +66701,21 @@
         <v>1826</v>
       </c>
       <c r="F20" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="H20" s="0" t="s">
         <v>277</v>
-      </c>
-      <c r="G20" s="0" t="s">
-        <v>258</v>
-      </c>
-      <c r="H20" s="0" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C21" s="36" t="n">
         <v>0</v>
@@ -66707,21 +66727,21 @@
         <v>1826</v>
       </c>
       <c r="F21" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="H21" s="0" t="s">
         <v>277</v>
-      </c>
-      <c r="G21" s="0" t="s">
-        <v>258</v>
-      </c>
-      <c r="H21" s="0" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C22" s="36" t="n">
         <v>0</v>
@@ -66733,21 +66753,21 @@
         <v>1826</v>
       </c>
       <c r="F22" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="H22" s="0" t="s">
         <v>277</v>
-      </c>
-      <c r="G22" s="0" t="s">
-        <v>258</v>
-      </c>
-      <c r="H22" s="0" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C23" s="36" t="n">
         <v>0</v>
@@ -66759,21 +66779,21 @@
         <v>1826</v>
       </c>
       <c r="F23" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="H23" s="0" t="s">
         <v>277</v>
-      </c>
-      <c r="G23" s="0" t="s">
-        <v>258</v>
-      </c>
-      <c r="H23" s="0" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C24" s="36" t="n">
         <v>0</v>
@@ -66785,47 +66805,47 @@
         <v>1826</v>
       </c>
       <c r="F24" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="H24" s="0" t="s">
         <v>277</v>
-      </c>
-      <c r="G24" s="0" t="s">
-        <v>258</v>
-      </c>
-      <c r="H24" s="0" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C25" s="36" t="n">
         <v>7</v>
       </c>
       <c r="D25" s="36" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E25" s="36" t="n">
         <v>1844</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C26" s="36" t="n">
         <v>1.6</v>
@@ -66837,21 +66857,21 @@
         <v>1832</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C27" s="36" t="n">
         <v>1.6</v>
@@ -66863,21 +66883,21 @@
         <v>1832</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C28" s="36" t="n">
         <v>1.6</v>
@@ -66889,21 +66909,21 @@
         <v>1832</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C29" s="36" t="n">
         <v>1.6</v>
@@ -66915,21 +66935,21 @@
         <v>1832</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C30" s="36" t="n">
         <v>2.4</v>
@@ -66941,21 +66961,21 @@
         <v>1836</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C31" s="36" t="n">
         <v>2.4</v>
@@ -66967,21 +66987,21 @@
         <v>1836</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C32" s="36" t="n">
         <v>2.4</v>
@@ -66993,47 +67013,47 @@
         <v>1836</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C33" s="36" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D33" s="36" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E33" s="36" t="n">
         <v>1830</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C34" s="36" t="n">
         <v>0</v>
@@ -67045,47 +67065,47 @@
         <v>1830</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C35" s="36" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D35" s="36" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E35" s="36" t="n">
         <v>1827</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C36" s="36" t="n">
         <v>0</v>
@@ -67097,21 +67117,21 @@
         <v>1827</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C37" s="36" t="n">
         <v>0</v>
@@ -67123,21 +67143,21 @@
         <v>1827</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C38" s="36" t="n">
         <v>0</v>
@@ -67149,21 +67169,21 @@
         <v>1827</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C39" s="36" t="n">
         <v>0</v>
@@ -67175,21 +67195,21 @@
         <v>1827</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C40" s="36" t="n">
         <v>0</v>
@@ -67201,21 +67221,21 @@
         <v>1827</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C41" s="36" t="n">
         <v>0</v>
@@ -67227,21 +67247,21 @@
         <v>1827</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C42" s="36" t="n">
         <v>1.6</v>
@@ -67253,21 +67273,21 @@
         <v>2833</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C43" s="36" t="n">
         <v>1.6</v>
@@ -67279,21 +67299,21 @@
         <v>2833</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C44" s="36" t="n">
         <v>1.6</v>
@@ -67305,21 +67325,21 @@
         <v>2833</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C45" s="36" t="n">
         <v>1.6</v>
@@ -67331,21 +67351,21 @@
         <v>2833</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C46" s="36" t="n">
         <v>1.6</v>
@@ -67357,21 +67377,21 @@
         <v>3833</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C47" s="36" t="n">
         <v>1.6</v>
@@ -67383,21 +67403,21 @@
         <v>3833</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C48" s="36" t="n">
         <v>1.6</v>
@@ -67409,21 +67429,21 @@
         <v>3833</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C49" s="36" t="n">
         <v>1.6</v>
@@ -67435,125 +67455,125 @@
         <v>3833</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C50" s="36" t="n">
         <v>1.6</v>
       </c>
       <c r="D50" s="36" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E50" s="36" t="n">
         <v>3835</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C51" s="36" t="n">
         <v>1.6</v>
       </c>
       <c r="D51" s="36" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E51" s="36" t="n">
         <v>2835</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C52" s="36" t="n">
         <v>1.6</v>
       </c>
       <c r="D52" s="36" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E52" s="36" t="n">
         <v>3833</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C53" s="36" t="n">
         <v>1.6</v>
       </c>
       <c r="D53" s="36" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E53" s="36" t="n">
         <v>2833</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C54" s="36" t="n">
         <v>1.6</v>
@@ -67565,21 +67585,21 @@
         <v>3833</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C55" s="36" t="n">
         <v>1.6</v>
@@ -67591,21 +67611,21 @@
         <v>2833</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C56" s="36" t="n">
         <v>2.4</v>
@@ -67617,21 +67637,21 @@
         <v>3837</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C57" s="36" t="n">
         <v>2.4</v>
@@ -67643,21 +67663,21 @@
         <v>2837</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C58" s="36" t="n">
         <v>2.4</v>
@@ -67669,21 +67689,21 @@
         <v>3837</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C59" s="36" t="n">
         <v>2.4</v>
@@ -67695,21 +67715,21 @@
         <v>2837</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C60" s="36" t="n">
         <v>2.4</v>
@@ -67721,21 +67741,21 @@
         <v>3837</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C61" s="36" t="n">
         <v>2.4</v>
@@ -67747,73 +67767,73 @@
         <v>2837</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C62" s="36" t="n">
         <v>2.4</v>
       </c>
       <c r="D62" s="36" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E62" s="36" t="n">
         <v>3837</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H62" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C63" s="36" t="n">
         <v>2.4</v>
       </c>
       <c r="D63" s="36" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E63" s="36" t="n">
         <v>2837</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H63" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C64" s="36" t="n">
         <v>2.4</v>
@@ -67825,21 +67845,21 @@
         <v>3837</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H64" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C65" s="36" t="n">
         <v>2.4</v>
@@ -67851,73 +67871,73 @@
         <v>2837</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H65" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C66" s="36" t="n">
         <v>3</v>
       </c>
       <c r="D66" s="36" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E66" s="36" t="n">
         <v>3839</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C67" s="36" t="n">
         <v>3</v>
       </c>
       <c r="D67" s="36" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E67" s="36" t="n">
         <v>2839</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H67" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C68" s="36" t="n">
         <v>3</v>
@@ -67929,21 +67949,21 @@
         <v>3839</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H68" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C69" s="36" t="n">
         <v>3</v>
@@ -67955,21 +67975,21 @@
         <v>2839</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H69" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C70" s="36" t="n">
         <v>3</v>
@@ -67981,21 +68001,21 @@
         <v>3839</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H70" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C71" s="36" t="n">
         <v>3</v>
@@ -68007,21 +68027,21 @@
         <v>2839</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H71" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C72" s="36" t="n">
         <v>3</v>
@@ -68033,21 +68053,21 @@
         <v>3839</v>
       </c>
       <c r="F72" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H72" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C73" s="36" t="n">
         <v>3</v>
@@ -68059,21 +68079,21 @@
         <v>2839</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H73" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C74" s="36" t="n">
         <v>4</v>
@@ -68085,21 +68105,21 @@
         <v>3841</v>
       </c>
       <c r="F74" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G74" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H74" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C75" s="36" t="n">
         <v>4</v>
@@ -68111,73 +68131,73 @@
         <v>2841</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H75" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C76" s="36" t="n">
         <v>4</v>
       </c>
       <c r="D76" s="36" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E76" s="36" t="n">
         <v>3841</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H76" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C77" s="36" t="n">
         <v>4</v>
       </c>
       <c r="D77" s="36" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E77" s="36" t="n">
         <v>2841</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H77" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C78" s="36" t="n">
         <v>4</v>
@@ -68189,21 +68209,21 @@
         <v>3841</v>
       </c>
       <c r="F78" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H78" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C79" s="36" t="n">
         <v>4</v>
@@ -68215,73 +68235,73 @@
         <v>2841</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H79" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C80" s="36" t="n">
         <v>5</v>
       </c>
       <c r="D80" s="36" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E80" s="36" t="n">
         <v>3843</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G80" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H80" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C81" s="36" t="n">
         <v>5</v>
       </c>
       <c r="D81" s="36" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E81" s="36" t="n">
         <v>2843</v>
       </c>
       <c r="F81" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H81" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C82" s="36" t="n">
         <v>5</v>
@@ -68293,21 +68313,21 @@
         <v>3843</v>
       </c>
       <c r="F82" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H82" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C83" s="36" t="n">
         <v>5</v>
@@ -68319,99 +68339,99 @@
         <v>2843</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H83" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C84" s="36" t="n">
         <v>7</v>
       </c>
       <c r="D84" s="36" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E84" s="36" t="n">
         <v>3845</v>
       </c>
       <c r="F84" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G84" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H84" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C85" s="36" t="n">
         <v>7</v>
       </c>
       <c r="D85" s="36" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E85" s="36" t="n">
         <v>2845</v>
       </c>
       <c r="F85" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G85" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H85" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C86" s="36" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D86" s="36" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E86" s="36" t="n">
         <v>1831</v>
       </c>
       <c r="F86" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G86" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H86" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C87" s="36" t="n">
         <v>0</v>
@@ -68423,47 +68443,47 @@
         <v>1831</v>
       </c>
       <c r="F87" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G87" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H87" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C88" s="36" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D88" s="36" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E88" s="36" t="n">
         <v>1828</v>
       </c>
       <c r="F88" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G88" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H88" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C89" s="36" t="n">
         <v>0</v>
@@ -68475,21 +68495,21 @@
         <v>1828</v>
       </c>
       <c r="F89" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G89" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H89" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C90" s="36" t="n">
         <v>0</v>
@@ -68501,21 +68521,21 @@
         <v>1828</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G90" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H90" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C91" s="36" t="n">
         <v>0</v>
@@ -68527,21 +68547,21 @@
         <v>1828</v>
       </c>
       <c r="F91" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G91" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H91" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C92" s="36" t="n">
         <v>0</v>
@@ -68553,21 +68573,21 @@
         <v>1828</v>
       </c>
       <c r="F92" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G92" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H92" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C93" s="36" t="n">
         <v>0</v>
@@ -68579,21 +68599,21 @@
         <v>1828</v>
       </c>
       <c r="F93" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G93" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H93" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C94" s="36" t="n">
         <v>0</v>
@@ -68605,13 +68625,13 @@
         <v>1828</v>
       </c>
       <c r="F94" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G94" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H94" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -68638,25 +68658,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.3522267206478"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.1376518218623"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -68688,20 +68708,20 @@
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="36" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.0647773279352"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="36" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.3846153846154"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="36" width="17.7813765182186"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="39" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -68709,7 +68729,7 @@
         <v>2310</v>
       </c>
       <c r="B2" s="42" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C2" s="36" t="n">
         <v>1846</v>
@@ -68720,7 +68740,7 @@
         <v>2310</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C3" s="36" t="n">
         <v>1847</v>
@@ -68731,7 +68751,7 @@
         <v>2330</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C4" s="36" t="n">
         <v>1848</v>
@@ -68742,7 +68762,7 @@
         <v>2330</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C5" s="36" t="n">
         <v>1849</v>

--- a/Projects/MARSRU2_SAND/Data/2018/MARS KPIs.xlsx
+++ b/Projects/MARSRU2_SAND/Data/2018/MARS KPIs.xlsx
@@ -29,9 +29,9 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">KPI!$B$1:$AA$72</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">KPI!$B$1:$AA$72</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">KPI!$B$1:$AA$72</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$B$1:$AA$71</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$B$1:$AA$72</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$B$1:$AA$71</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$B$1:$AA$72</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$B$1:$AA$71</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$B$1:$AA$72</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$B$1:$AA$71</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$B$1:$AA$71</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$B$1:$AA$71</definedName>
@@ -46,6 +46,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$B$1:$AA$71</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$B$1:$AA$71</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$B$1:$AA$71</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$B$1:$AA$71</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -116,7 +117,7 @@
     <t xml:space="preserve">Manufacturer</t>
   </si>
   <si>
-    <t xml:space="preserve">Brand Category value</t>
+    <t xml:space="preserve">Category</t>
   </si>
   <si>
     <t xml:space="preserve">Sub brand to include</t>
@@ -1602,35 +1603,35 @@
   </sheetPr>
   <dimension ref="1:72"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
+      <selection pane="bottomLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="33.4210526315789"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="33.7408906882591"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="2" width="6.42914979757085"/>
     <col collapsed="false" hidden="false" max="5" min="3" style="2" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="17.8906882591093"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="3" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="3" width="38.668016194332"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="3" width="99.2995951417004"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="3" width="102.728744939271"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="37.919028340081"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="3" width="38.9919028340081"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="3" width="100.263157894737"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="3" width="103.692307692308"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="38.2429149797571"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="3" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="2" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="23.3522267206478"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="2" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="3" width="8.89068825910931"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="4" width="37.2793522267206"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="3" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="4" width="37.5991902834008"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="3" width="21.1012145748988"/>
     <col collapsed="false" hidden="false" max="22" min="19" style="3" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="24" min="23" style="3" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="26" min="25" style="3" width="17.7813765182186"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="3" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="4" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="24" min="23" style="3" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="26" min="25" style="3" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="3" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="4" width="19.8178137651822"/>
     <col collapsed="false" hidden="false" max="1025" min="29" style="1" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -65718,13 +65719,13 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -65750,10 +65751,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="25" width="36.9554655870445"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="25" width="37.2793522267206"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="25" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="25" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="26" width="37.17004048583"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="26" width="37.4898785425101"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="26" width="11.0323886639676"/>
   </cols>
   <sheetData>
@@ -65852,10 +65853,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="25" width="36.9554655870445"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="25" width="37.2793522267206"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="26" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="26" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="26" width="37.17004048583"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="26" width="37.4898785425101"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="26" width="11.0323886639676"/>
   </cols>
   <sheetData>
@@ -65953,10 +65954,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.1376518218623"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="65.3441295546559"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="65.8785425101215"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.2429149797571"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -66082,10 +66083,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="33" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="33" width="26.1376518218623"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="33" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="33" width="66.6275303643725"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="33" width="36.2064777327935"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="33" width="67.2712550607288"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="33" width="36.5263157894737"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="33" width="11.0323886639676"/>
   </cols>
   <sheetData>
@@ -66211,8 +66212,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="25" width="54.9514170040486"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="25" width="37.17004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="25" width="55.4858299595142"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="25" width="37.4898785425101"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="25" width="10.7125506072875"/>
   </cols>
   <sheetData>
@@ -66320,14 +66321,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="51.0971659919028"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="36" width="39.3117408906883"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="36" width="36.2064777327935"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="36" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="28.0647773279352"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="51.5222672064777"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="36" width="39.6356275303644"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="36" width="36.5263157894737"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="36" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="28.2793522267206"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="23.5668016194332"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -68801,10 +68802,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.3522267206478"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.5668016194332"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -68851,8 +68852,8 @@
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="36" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.5991902834008"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="36" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.8137651821862"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="36" width="17.995951417004"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
